--- a/Mini Project Product Backlog.xlsx
+++ b/Mini Project Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\fo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B6C74-2435-4B38-9FC0-29ECABC5B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA9C46-951A-4595-AAE0-860AFBED9D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -431,16 +431,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,6 +447,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -739,11 +739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -758,10 +758,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -783,10 +783,10 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="16"/>
@@ -808,10 +808,10 @@
       <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="16"/>
@@ -833,7 +833,7 @@
       <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -845,10 +845,10 @@
       <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="16"/>
@@ -871,7 +871,7 @@
       <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -884,10 +884,10 @@
       <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="16"/>
@@ -896,7 +896,7 @@
       <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
@@ -917,7 +917,7 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
@@ -942,7 +942,7 @@
       <c r="C15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
@@ -961,23 +961,23 @@
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="J17" s="26"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="16"/>
@@ -1013,10 +1013,10 @@
       <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="16"/>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2130,10 +2130,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2163,7 +2163,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2202,7 +2202,7 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2224,11 +2224,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="20"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -2271,35 +2271,35 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="20"/>
     </row>
     <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="20"/>
     </row>
     <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="20"/>
     </row>
     <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="20"/>
     </row>
     <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="20"/>
     </row>
     <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="20"/>
     </row>
     <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="20"/>
     </row>
     <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="20"/>
     </row>
     <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -3287,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1058BD-00AA-46C7-A99E-38594ECCEFB7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3297,129 +3297,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3427,14 +3427,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73ed25ed-e63f-4987-b21c-b720c092b29e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="78fc2d42-6be0-4fb2-810f-bcc9a18d2a6a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,27 +3625,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73ed25ed-e63f-4987-b21c-b720c092b29e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="78fc2d42-6be0-4fb2-810f-bcc9a18d2a6a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="73ed25ed-e63f-4987-b21c-b720c092b29e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="78fc2d42-6be0-4fb2-810f-bcc9a18d2a6a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3672,9 +3663,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="73ed25ed-e63f-4987-b21c-b720c092b29e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78fc2d42-6be0-4fb2-810f-bcc9a18d2a6a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>